--- a/Compiled outputs Feb 2025.xlsx
+++ b/Compiled outputs Feb 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\md1rwe\Documents\Data extractions from I-CAH\Feb 2025\I-CAH_data_Feb_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED67CEE7-12BD-4C5A-BFCA-3604045FCA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8E5D09-BF99-448E-8E70-4C8A7A50B616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="5595" windowWidth="31605" windowHeight="12375" activeTab="1" xr2:uid="{0C64CAD2-99F8-4483-9AFB-7830603B63CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="3" xr2:uid="{0C64CAD2-99F8-4483-9AFB-7830603B63CF}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="295">
   <si>
     <t>Sex.at.birth</t>
   </si>
@@ -954,11 +954,23 @@
   <si>
     <t>number of centres</t>
   </si>
+  <si>
+    <t>total records</t>
+  </si>
+  <si>
+    <t>percentages</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1091,7 +1103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1101,6 +1113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1110,7 +1123,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1454,7 +1468,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>278</v>
       </c>
     </row>
@@ -1467,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A940C76-8F58-433A-A718-D5E484B5CF3F}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,10 +1801,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240E7E16-AC56-4C11-904F-02087C4BEB65}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,39 +1812,54 @@
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>245</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="13">
+        <f>B2/SUM($B$2:$B$4) * 100</f>
+        <v>62.340966921119588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>147</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="13">
+        <f>B3/SUM($B$2:$B$4) * 100</f>
+        <v>37.404580152671755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="13">
+        <f t="shared" ref="C3:C4" si="0">B4/SUM($B$2:$B$4) * 100</f>
+        <v>0.2544529262086514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>276</v>
       </c>
@@ -1848,8 +1877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A111D79-B485-43F1-84B3-3B22599F6023}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,6 +1893,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1872,6 +1904,10 @@
       <c r="B2">
         <v>70</v>
       </c>
+      <c r="C2" s="13">
+        <f>B2/SUM($B$2:$B$8) * 100</f>
+        <v>17.8117048346056</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1880,6 +1916,10 @@
       <c r="B3">
         <v>112</v>
       </c>
+      <c r="C3" s="13">
+        <f t="shared" ref="C3:C8" si="0">B3/SUM($B$2:$B$8) * 100</f>
+        <v>28.498727735368956</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1888,6 +1928,10 @@
       <c r="B4">
         <v>95</v>
       </c>
+      <c r="C4" s="13">
+        <f t="shared" si="0"/>
+        <v>24.173027989821882</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1896,6 +1940,10 @@
       <c r="B5">
         <v>62</v>
       </c>
+      <c r="C5" s="13">
+        <f t="shared" si="0"/>
+        <v>15.776081424936386</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1904,6 +1952,10 @@
       <c r="B6">
         <v>35</v>
       </c>
+      <c r="C6" s="13">
+        <f t="shared" si="0"/>
+        <v>8.9058524173027998</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1912,6 +1964,10 @@
       <c r="B7">
         <v>14</v>
       </c>
+      <c r="C7" s="13">
+        <f t="shared" si="0"/>
+        <v>3.5623409669211195</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1919,6 +1975,10 @@
       </c>
       <c r="B8">
         <v>5</v>
+      </c>
+      <c r="C8" s="13">
+        <f t="shared" si="0"/>
+        <v>1.2722646310432568</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1959,39 +2019,41 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5097C6-8B27-4856-BBA5-3F7AAE1DEDDD}">
-  <dimension ref="B2:J4"/>
+  <dimension ref="A2:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="9" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
@@ -2020,7 +2082,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -2048,6 +2110,67 @@
       <c r="J4" s="6">
         <v>2</v>
       </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" s="14">
+        <f>B4/SUM($B$4:$E$4) * 100</f>
+        <v>1.5873015873015872</v>
+      </c>
+      <c r="C6" s="14">
+        <f t="shared" ref="C6:F6" si="0">C4/SUM($B$4:$E$4) * 100</f>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F6" s="14">
+        <f>F4/SUM($F$4:$J$4) * 100</f>
+        <v>2.7027027027027026</v>
+      </c>
+      <c r="G6" s="14">
+        <f t="shared" ref="G6:J6" si="1">G4/SUM($F$4:$J$4) * 100</f>
+        <v>36.293436293436294</v>
+      </c>
+      <c r="H6" s="14">
+        <f t="shared" si="1"/>
+        <v>5.019305019305019</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" si="1"/>
+        <v>55.212355212355213</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="1"/>
+        <v>0.77220077220077221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8">
+        <f>SUM(B4:E4)</f>
+        <v>126</v>
+      </c>
+      <c r="F8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G8">
+        <f>SUM(F4:J4)</f>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2086,28 +2209,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="12"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11562,7 +11685,7 @@
   <dimension ref="B1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11572,22 +11695,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
-      <c r="I1" s="9" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
+      <c r="I1" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">

--- a/Compiled outputs Feb 2025.xlsx
+++ b/Compiled outputs Feb 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\md1rwe\Documents\Data extractions from I-CAH\Feb 2025\I-CAH_data_Feb_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33A0F65-2754-402B-A8C8-AE71C3A9ECF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616FDC22-3C73-49F8-BB2C-57D10BFD71F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="5" xr2:uid="{0C64CAD2-99F8-4483-9AFB-7830603B63CF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="4" xr2:uid="{0C64CAD2-99F8-4483-9AFB-7830603B63CF}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="8" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="Age stats" sheetId="3" r:id="rId4"/>
     <sheet name="Mineralocorticoid prescriptions" sheetId="4" r:id="rId5"/>
     <sheet name="Patient dose per day" sheetId="9" r:id="rId6"/>
-    <sheet name="CAH-biomarkers" sheetId="5" r:id="rId7"/>
-    <sheet name="BMI" sheetId="6" r:id="rId8"/>
+    <sheet name="BMI" sheetId="6" r:id="rId7"/>
+    <sheet name="CAH-biomarkers" sheetId="5" r:id="rId8"/>
     <sheet name="Blood pressure" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="303">
   <si>
     <t>Sex.at.birth</t>
   </si>
@@ -968,13 +968,25 @@
     <t>assessment_id</t>
   </si>
   <si>
-    <t>Medicine</t>
-  </si>
-  <si>
-    <t>total_standardised_daily_dose</t>
-  </si>
-  <si>
-    <t>Number of doses per day</t>
+    <t>number_of_doses.max(assessment_entry)</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>total_standardised_daily_dose_1</t>
+  </si>
+  <si>
+    <t>Medicine_1</t>
+  </si>
+  <si>
+    <t>Patients on single or combined therapies</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Combined</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1129,6 +1141,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2032,10 +2047,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5097C6-8B27-4856-BBA5-3F7AAE1DEDDD}">
-  <dimension ref="A2:J10"/>
+  <dimension ref="A2:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2052,19 +2067,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -2184,6 +2199,27 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="11"/>
       <c r="F10" s="11"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C14">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C15">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2196,40 +2232,43 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358BE53D-3980-4698-A956-04A90D878589}">
-  <dimension ref="B2:E387"/>
+  <dimension ref="B2:F387"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>295</v>
       </c>
       <c r="C2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" t="s">
         <v>296</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>297</v>
       </c>
-      <c r="E2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3">
-        <v>2</v>
+        <v>3006734</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>25</v>
@@ -2238,273 +2277,318 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4">
-        <v>3005668</v>
+        <v>3008192</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5">
-        <v>3005982</v>
+        <v>30016190</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>30.04</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6">
+        <v>30016541</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>30021253</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>48.4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>30021256</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>30021461</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>31.56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>30023957</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>30023958</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12">
         <v>3006060</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <v>3006061</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B8">
-        <v>3006063</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9">
-        <v>3006064</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10">
-        <v>3006097</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11">
-        <v>3006124</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>12.5</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12">
-        <v>3006210</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13">
-        <v>3006222</v>
+        <v>3006061</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>26.53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14">
-        <v>3006348</v>
+        <v>3006063</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>42.5</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15">
-        <v>3006677</v>
+        <v>3006064</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <v>33.19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16">
-        <v>3006683</v>
+        <v>3006097</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>23.12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17">
-        <v>3006685</v>
+        <v>3006124</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>12.5</v>
       </c>
       <c r="E17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>22.54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18">
-        <v>3006686</v>
+        <v>3006210</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19">
-        <v>3006690</v>
+        <v>3006677</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
       </c>
       <c r="D19">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>29.75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20">
-        <v>3006691</v>
+        <v>3006685</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
       </c>
       <c r="D20">
-        <v>12.5</v>
+        <v>30</v>
       </c>
       <c r="E20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>19.07</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21">
-        <v>3006733</v>
+        <v>3006686</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <v>19.07</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22">
-        <v>3006734</v>
+        <v>3006733</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>32.29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>3006897</v>
       </c>
@@ -2518,79 +2602,82 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24">
-        <v>3006915</v>
+        <v>3006992</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
       </c>
       <c r="D24">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25">
-        <v>3006988</v>
+        <v>3007013</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>28.39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26">
-        <v>3006989</v>
+        <v>3007022</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27">
-        <v>3006990</v>
+        <v>3007232</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D27">
         <v>20</v>
       </c>
       <c r="E27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28">
-        <v>3006991</v>
+        <v>3008194</v>
       </c>
       <c r="C28" t="s">
         <v>19</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29">
-        <v>3006992</v>
+        <v>3008195</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
@@ -2599,141 +2686,150 @@
         <v>20</v>
       </c>
       <c r="E29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30">
-        <v>3006993</v>
+        <v>3008196</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31">
-        <v>3007010</v>
+        <v>3008197</v>
       </c>
       <c r="C31" t="s">
         <v>19</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32">
-        <v>3007011</v>
+        <v>3008199</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33">
-        <v>3007013</v>
+        <v>3009573</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34">
-        <v>3007014</v>
+        <v>30010094</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35">
-        <v>3007022</v>
+        <v>30010621</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <v>29.34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36">
-        <v>3007023</v>
+        <v>30010625</v>
       </c>
       <c r="C36" t="s">
         <v>19</v>
       </c>
       <c r="D36">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>47.56</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37">
-        <v>3007226</v>
+        <v>30010626</v>
       </c>
       <c r="C37" t="s">
         <v>19</v>
       </c>
       <c r="D37">
-        <v>37.5</v>
+        <v>20</v>
       </c>
       <c r="E37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38">
-        <v>3007231</v>
+        <v>30010627</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>46.31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39">
-        <v>3007232</v>
+        <v>30010630</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D39">
         <v>20</v>
@@ -2742,23 +2838,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40">
-        <v>3007233</v>
+        <v>30010635</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D40">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F40">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B41">
-        <v>3007234</v>
+        <v>30010638</v>
       </c>
       <c r="C41" t="s">
         <v>19</v>
@@ -2767,85 +2866,88 @@
         <v>25</v>
       </c>
       <c r="E41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>21.56</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B42">
-        <v>3007235</v>
+        <v>30010639</v>
       </c>
       <c r="C42" t="s">
         <v>19</v>
       </c>
       <c r="D42">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B43">
-        <v>3007261</v>
+        <v>30010642</v>
       </c>
       <c r="C43" t="s">
         <v>19</v>
       </c>
       <c r="D43">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B44">
-        <v>3008188</v>
+        <v>30010644</v>
       </c>
       <c r="C44" t="s">
         <v>19</v>
       </c>
       <c r="D44">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="E44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B45">
-        <v>3008190</v>
+        <v>30010645</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D45">
-        <v>12.5</v>
+        <v>30</v>
       </c>
       <c r="E45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B46">
-        <v>3008192</v>
+        <v>30010646</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D46">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B47">
-        <v>3008194</v>
+        <v>30010708</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D47">
         <v>20</v>
@@ -2854,415 +2956,463 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B48">
-        <v>3008195</v>
+        <v>30010711</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49">
-        <v>3008196</v>
+        <v>30010764</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D49">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F49">
+        <v>19.510000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50">
-        <v>3008197</v>
+        <v>30014548</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D50">
         <v>20</v>
       </c>
       <c r="E50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>41.81</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51">
-        <v>3008199</v>
+        <v>30014555</v>
       </c>
       <c r="C51" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>42.5</v>
       </c>
       <c r="E51">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B52">
-        <v>3008201</v>
+        <v>30014556</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D52">
-        <v>12.5</v>
+        <v>35</v>
       </c>
       <c r="E52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53">
-        <v>3009573</v>
+        <v>30014557</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D53">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E53">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B54">
-        <v>3009758</v>
+        <v>30014558</v>
       </c>
       <c r="C54" t="s">
         <v>19</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B55">
-        <v>3009759</v>
+        <v>30015854</v>
       </c>
       <c r="C55" t="s">
         <v>19</v>
       </c>
       <c r="D55">
-        <v>15</v>
+        <v>27.5</v>
       </c>
       <c r="E55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>29.04</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B56">
-        <v>3009760</v>
+        <v>30016021</v>
       </c>
       <c r="C56" t="s">
         <v>19</v>
       </c>
       <c r="D56">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B57">
-        <v>3009761</v>
+        <v>30016128</v>
       </c>
       <c r="C57" t="s">
         <v>19</v>
       </c>
       <c r="D57">
-        <v>37.5</v>
+        <v>20</v>
       </c>
       <c r="E57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>34.840000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B58">
-        <v>3009762</v>
+        <v>30016159</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D58">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B59">
-        <v>30010092</v>
+        <v>30016642</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="E59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B60">
-        <v>30010093</v>
+        <v>30016900</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>22.15</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B61">
-        <v>30010094</v>
+        <v>30017465</v>
       </c>
       <c r="C61" t="s">
         <v>19</v>
       </c>
       <c r="D61">
+        <v>25</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>30017467</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62">
         <v>20</v>
       </c>
-      <c r="E61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B62">
-        <v>30010095</v>
-      </c>
-      <c r="C62" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62">
-        <v>30</v>
-      </c>
       <c r="E62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F62">
+        <v>28.32</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B63">
-        <v>30010096</v>
+        <v>30019088</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D63">
-        <v>40</v>
+        <v>0.5</v>
       </c>
       <c r="E63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B64">
-        <v>30010314</v>
+        <v>30019089</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D64">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B65">
-        <v>30010318</v>
+        <v>30019174</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D65">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B66">
-        <v>30010323</v>
+        <v>30019176</v>
       </c>
       <c r="C66" t="s">
         <v>19</v>
       </c>
       <c r="D66">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>42.56</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B67">
-        <v>30010371</v>
+        <v>30019177</v>
       </c>
       <c r="C67" t="s">
         <v>19</v>
       </c>
       <c r="D67">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B68">
-        <v>30010621</v>
+        <v>30019340</v>
       </c>
       <c r="C68" t="s">
         <v>19</v>
       </c>
       <c r="D68">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>30.43</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>30019617</v>
+      </c>
+      <c r="C69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69">
+        <v>30</v>
+      </c>
+      <c r="E69">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B69">
-        <v>30010623</v>
-      </c>
-      <c r="C69" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69">
-        <v>25</v>
-      </c>
-      <c r="E69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F69">
+        <v>25.56</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B70">
-        <v>30010624</v>
+        <v>30019713</v>
       </c>
       <c r="C70" t="s">
         <v>19</v>
       </c>
       <c r="D70">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E70">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F70">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B71">
-        <v>30010625</v>
+        <v>30019715</v>
       </c>
       <c r="C71" t="s">
         <v>19</v>
       </c>
       <c r="D71">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E71">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F71">
+        <v>22.98</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B72">
-        <v>30010626</v>
+        <v>30019747</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D72">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E72">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F72">
+        <v>30.96</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B73">
-        <v>30010627</v>
+        <v>30019865</v>
       </c>
       <c r="C73" t="s">
         <v>19</v>
       </c>
       <c r="D73">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E73">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F73">
+        <v>53.11</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B74">
-        <v>30010629</v>
+        <v>30019895</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F74">
+        <v>44.71</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B75">
-        <v>30010630</v>
+        <v>30020095</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D75">
         <v>20</v>
       </c>
       <c r="E75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>24.75</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B76">
-        <v>30010634</v>
+        <v>30020096</v>
       </c>
       <c r="C76" t="s">
         <v>19</v>
       </c>
       <c r="D76">
-        <v>27.5</v>
+        <v>25</v>
       </c>
       <c r="E76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>49.31</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B77">
-        <v>30010635</v>
+        <v>30020097</v>
       </c>
       <c r="C77" t="s">
         <v>19</v>
@@ -3273,136 +3423,160 @@
       <c r="E77">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F77">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B78">
-        <v>30010638</v>
+        <v>30020294</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D78">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E78">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F78">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B79">
-        <v>30010639</v>
+        <v>30020393</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D79">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>26.42</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B80">
-        <v>30010641</v>
+        <v>30020410</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B81">
-        <v>30010642</v>
+        <v>30020411</v>
       </c>
       <c r="C81" t="s">
         <v>19</v>
       </c>
       <c r="D81">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E81">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B82">
-        <v>30010644</v>
+        <v>30020825</v>
       </c>
       <c r="C82" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D82">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E82">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F82">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B83">
-        <v>30010645</v>
+        <v>30020826</v>
       </c>
       <c r="C83" t="s">
         <v>19</v>
       </c>
       <c r="D83">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E83">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F83">
+        <v>21.12</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B84">
-        <v>30010646</v>
+        <v>30020950</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D84">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>32.549999999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B85">
-        <v>30010648</v>
+        <v>30020951</v>
       </c>
       <c r="C85" t="s">
         <v>19</v>
       </c>
       <c r="D85">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="E85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B86">
-        <v>30010700</v>
+        <v>30020952</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D86">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E86">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F86">
+        <v>53.12</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B87">
-        <v>30010707</v>
+        <v>30021076</v>
       </c>
       <c r="C87" t="s">
         <v>19</v>
@@ -3413,13 +3587,16 @@
       <c r="E87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F87">
+        <v>29.17</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B88">
-        <v>30010708</v>
+        <v>30021264</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D88">
         <v>20</v>
@@ -3427,234 +3604,270 @@
       <c r="E88">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F88">
+        <v>33.82</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B89">
-        <v>30010710</v>
+        <v>30021265</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D89">
+        <v>15</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>34.450000000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <v>30021316</v>
+      </c>
+      <c r="C90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90">
+        <v>15</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>32.090000000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <v>30021451</v>
+      </c>
+      <c r="C91" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91">
+        <v>40</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>30021455</v>
+      </c>
+      <c r="C92" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92">
         <v>30</v>
       </c>
-      <c r="E89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B90">
-        <v>30010711</v>
-      </c>
-      <c r="C90" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90">
-        <v>25</v>
-      </c>
-      <c r="E90">
+      <c r="E92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B93">
+        <v>30021456</v>
+      </c>
+      <c r="C93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93">
+        <v>15</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>35.31</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <v>30021972</v>
+      </c>
+      <c r="C94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94">
+        <v>15</v>
+      </c>
+      <c r="E94">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B91">
-        <v>30010712</v>
-      </c>
-      <c r="C91" t="s">
-        <v>20</v>
-      </c>
-      <c r="D91">
-        <v>20</v>
-      </c>
-      <c r="E91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B92">
-        <v>30010764</v>
-      </c>
-      <c r="C92" t="s">
-        <v>21</v>
-      </c>
-      <c r="D92">
-        <v>25</v>
-      </c>
-      <c r="E92">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <v>30021973</v>
+      </c>
+      <c r="C95" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95">
+        <v>15</v>
+      </c>
+      <c r="E95">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B93">
-        <v>30010796</v>
-      </c>
-      <c r="C93" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93">
-        <v>37.5</v>
-      </c>
-      <c r="E93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B94">
-        <v>30011003</v>
-      </c>
-      <c r="C94" t="s">
-        <v>21</v>
-      </c>
-      <c r="D94">
-        <v>50</v>
-      </c>
-      <c r="E94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B95">
-        <v>30011560</v>
-      </c>
-      <c r="C95" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95">
-        <v>30</v>
-      </c>
-      <c r="E95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B96">
-        <v>30011561</v>
+        <v>30022047</v>
       </c>
       <c r="C96" t="s">
         <v>19</v>
       </c>
       <c r="D96">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F96">
+        <v>26.99</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B97">
-        <v>30011562</v>
+        <v>30022048</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D97">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E97">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F97">
+        <v>35.61</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B98">
-        <v>30011563</v>
+        <v>30022049</v>
       </c>
       <c r="C98" t="s">
         <v>19</v>
       </c>
       <c r="D98">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>20.67</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B99">
-        <v>30013600</v>
+        <v>30022054</v>
       </c>
       <c r="C99" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D99">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F99">
+        <v>22.47</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B100">
-        <v>30014548</v>
+        <v>30022057</v>
       </c>
       <c r="C100" t="s">
         <v>19</v>
       </c>
       <c r="D100">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E100">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F100">
+        <v>27.36</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B101">
-        <v>30014555</v>
+        <v>30022060</v>
       </c>
       <c r="C101" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D101">
-        <v>42.5</v>
+        <v>30</v>
       </c>
       <c r="E101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B102">
-        <v>30014556</v>
+        <v>30022061</v>
       </c>
       <c r="C102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D102">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>26.69</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B103">
-        <v>30014557</v>
+        <v>30022071</v>
       </c>
       <c r="C103" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D103">
         <v>30</v>
       </c>
       <c r="E103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F103">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B104">
-        <v>30014558</v>
+        <v>30022073</v>
       </c>
       <c r="C104" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D104">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>39.130000000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B105">
-        <v>30014981</v>
+        <v>30022074</v>
       </c>
       <c r="C105" t="s">
         <v>19</v>
@@ -3666,9 +3879,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B106">
-        <v>30014993</v>
+        <v>30022075</v>
       </c>
       <c r="C106" t="s">
         <v>19</v>
@@ -3680,138 +3893,144 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B107">
-        <v>30015853</v>
+        <v>30022094</v>
       </c>
       <c r="C107" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D107">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B108">
-        <v>30015854</v>
+        <v>30022267</v>
       </c>
       <c r="C108" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D108">
-        <v>27.5</v>
+        <v>20</v>
       </c>
       <c r="E108">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B109">
-        <v>30016011</v>
+        <v>30022273</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D109">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E109">
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B110">
-        <v>30016014</v>
+        <v>30022345</v>
       </c>
       <c r="C110" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D110">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B111">
-        <v>30016021</v>
+        <v>30022356</v>
       </c>
       <c r="C111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D111">
         <v>20</v>
       </c>
       <c r="E111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B112">
+        <v>30022468</v>
+      </c>
+      <c r="C112" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112">
+        <v>15</v>
+      </c>
+      <c r="E112">
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B112">
-        <v>30016022</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="F112">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B113">
+        <v>30022477</v>
+      </c>
+      <c r="C113" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113">
         <v>20</v>
       </c>
-      <c r="D112">
-        <v>40</v>
-      </c>
-      <c r="E112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B113">
-        <v>30016122</v>
-      </c>
-      <c r="C113" t="s">
-        <v>20</v>
-      </c>
-      <c r="D113">
-        <v>25</v>
-      </c>
       <c r="E113">
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B114">
-        <v>30016125</v>
+        <v>30022478</v>
       </c>
       <c r="C114" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D114">
         <v>20</v>
       </c>
       <c r="E114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B115">
-        <v>30016127</v>
+        <v>30022481</v>
       </c>
       <c r="C115" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D115">
         <v>20</v>
       </c>
       <c r="E115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F115">
+        <v>21.23</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B116">
-        <v>30016128</v>
+        <v>30022482</v>
       </c>
       <c r="C116" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D116">
         <v>20</v>
@@ -3820,401 +4039,452 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B117">
-        <v>30016129</v>
+        <v>30022488</v>
       </c>
       <c r="C117" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D117">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E117">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F117">
+        <v>26.09</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B118">
-        <v>30016130</v>
+        <v>30022494</v>
       </c>
       <c r="C118" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D118">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B119">
-        <v>30016131</v>
+        <v>30022504</v>
       </c>
       <c r="C119" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D119">
-        <v>15</v>
+        <v>27.5</v>
       </c>
       <c r="E119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B120">
-        <v>30016150</v>
+        <v>30022505</v>
       </c>
       <c r="C120" t="s">
         <v>19</v>
       </c>
       <c r="D120">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B121">
-        <v>30016151</v>
+        <v>30022529</v>
       </c>
       <c r="C121" t="s">
         <v>19</v>
       </c>
       <c r="D121">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B122">
-        <v>30016159</v>
+        <v>30022530</v>
       </c>
       <c r="C122" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D122">
+        <v>10</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <v>31.39</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B123">
+        <v>30022569</v>
+      </c>
+      <c r="C123" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123">
+        <v>20</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B124">
+        <v>30022634</v>
+      </c>
+      <c r="C124" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124">
         <v>25</v>
       </c>
-      <c r="E122">
+      <c r="E124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B125">
+        <v>30022635</v>
+      </c>
+      <c r="C125" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125">
+        <v>17.5</v>
+      </c>
+      <c r="E125">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B123">
-        <v>30016178</v>
-      </c>
-      <c r="C123" t="s">
-        <v>21</v>
-      </c>
-      <c r="D123">
-        <v>15</v>
-      </c>
-      <c r="E123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B124">
-        <v>30016190</v>
-      </c>
-      <c r="C124" t="s">
-        <v>20</v>
-      </c>
-      <c r="D124">
-        <v>40</v>
-      </c>
-      <c r="E124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B125">
-        <v>30016541</v>
-      </c>
-      <c r="C125" t="s">
-        <v>21</v>
-      </c>
-      <c r="D125">
-        <v>80</v>
-      </c>
-      <c r="E125">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B126">
+        <v>30022636</v>
+      </c>
+      <c r="C126" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126">
+        <v>10</v>
+      </c>
+      <c r="E126">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B126">
-        <v>30016600</v>
-      </c>
-      <c r="C126" t="s">
-        <v>21</v>
-      </c>
-      <c r="D126">
-        <v>25</v>
-      </c>
-      <c r="E126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B127">
-        <v>30016642</v>
+        <v>30022753</v>
       </c>
       <c r="C127" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D127">
-        <v>17.5</v>
+        <v>30</v>
       </c>
       <c r="E127">
         <v>3</v>
       </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F127">
+        <v>43.16</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B128">
-        <v>30016900</v>
+        <v>30022754</v>
       </c>
       <c r="C128" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128">
         <v>20</v>
-      </c>
-      <c r="D128">
-        <v>25</v>
       </c>
       <c r="E128">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B129">
-        <v>30016901</v>
+        <v>30022778</v>
       </c>
       <c r="C129" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D129">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E129">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F129">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B130">
-        <v>30017465</v>
+        <v>30022795</v>
       </c>
       <c r="C130" t="s">
         <v>19</v>
       </c>
       <c r="D130">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F130">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B131">
-        <v>30017467</v>
+        <v>30022805</v>
       </c>
       <c r="C131" t="s">
         <v>19</v>
       </c>
       <c r="D131">
+        <v>30</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
+      </c>
+      <c r="F131">
+        <v>31.53</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B132">
+        <v>30022809</v>
+      </c>
+      <c r="C132" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132">
+        <v>10</v>
+      </c>
+      <c r="E132">
+        <v>3</v>
+      </c>
+      <c r="F132">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B133">
+        <v>30022893</v>
+      </c>
+      <c r="C133" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133">
         <v>20</v>
       </c>
-      <c r="E131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B132">
-        <v>30017824</v>
-      </c>
-      <c r="C132" t="s">
-        <v>21</v>
-      </c>
-      <c r="D132">
-        <v>30</v>
-      </c>
-      <c r="E132">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B133">
-        <v>30017826</v>
-      </c>
-      <c r="C133" t="s">
-        <v>21</v>
-      </c>
-      <c r="D133">
-        <v>25</v>
-      </c>
       <c r="E133">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F133">
+        <v>26.93</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B134">
-        <v>30018505</v>
+        <v>30022894</v>
       </c>
       <c r="C134" t="s">
         <v>19</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>132.5</v>
       </c>
       <c r="E134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="F134">
+        <v>30.26</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B135">
-        <v>30019051</v>
+        <v>30023010</v>
       </c>
       <c r="C135" t="s">
         <v>19</v>
       </c>
       <c r="D135">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E135">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B136">
-        <v>30019056</v>
+        <v>30023380</v>
       </c>
       <c r="C136" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D136">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F136">
+        <v>31.15</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B137">
-        <v>30019059</v>
+        <v>30023409</v>
       </c>
       <c r="C137" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D137">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F137">
+        <v>58.59</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B138">
-        <v>30019060</v>
+        <v>30023411</v>
       </c>
       <c r="C138" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D138">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F138">
+        <v>24.35</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B139">
-        <v>30019061</v>
+        <v>30023484</v>
       </c>
       <c r="C139" t="s">
         <v>19</v>
       </c>
       <c r="D139">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F139">
+        <v>38.08</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B140">
-        <v>30019088</v>
+        <v>30023497</v>
       </c>
       <c r="C140" t="s">
         <v>19</v>
       </c>
       <c r="D140">
-        <v>0.5</v>
+        <v>12.5</v>
       </c>
       <c r="E140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F140">
+        <v>30.28</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B141">
-        <v>30019089</v>
+        <v>30023499</v>
       </c>
       <c r="C141" t="s">
         <v>19</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>27.5</v>
       </c>
       <c r="E141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B142">
-        <v>30019091</v>
+        <v>30023744</v>
       </c>
       <c r="C142" t="s">
         <v>19</v>
       </c>
       <c r="D142">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F142">
+        <v>30.29</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B143">
-        <v>30019172</v>
+        <v>30023946</v>
       </c>
       <c r="C143" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D143">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F143">
+        <v>29.04</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B144">
-        <v>30019173</v>
+        <v>30023951</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D144">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F144">
+        <v>30.26</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B145">
-        <v>30019174</v>
+        <v>30024013</v>
       </c>
       <c r="C145" t="s">
         <v>19</v>
@@ -4223,519 +4493,564 @@
         <v>10</v>
       </c>
       <c r="E145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F145">
+        <v>29.54</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B146">
-        <v>30019175</v>
+        <v>30024032</v>
       </c>
       <c r="C146" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146">
+        <v>17.5</v>
+      </c>
+      <c r="E146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B147">
+        <v>30024096</v>
+      </c>
+      <c r="C147" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147">
         <v>20</v>
       </c>
-      <c r="D146">
-        <v>25</v>
-      </c>
-      <c r="E146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B147">
-        <v>30019176</v>
-      </c>
-      <c r="C147" t="s">
-        <v>21</v>
-      </c>
-      <c r="D147">
-        <v>10</v>
-      </c>
       <c r="E147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F147">
+        <v>32.130000000000003</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B148">
-        <v>30019177</v>
+        <v>30024098</v>
       </c>
       <c r="C148" t="s">
         <v>19</v>
       </c>
       <c r="D148">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F148">
+        <v>32.53</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B149">
-        <v>30019180</v>
+        <v>30024100</v>
       </c>
       <c r="C149" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D149">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="E149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F149">
+        <v>28.36</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B150">
-        <v>30019214</v>
+        <v>30024101</v>
       </c>
       <c r="C150" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D150">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F150">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B151">
-        <v>30019329</v>
+        <v>30024229</v>
       </c>
       <c r="C151" t="s">
         <v>19</v>
       </c>
       <c r="D151">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B152">
-        <v>30019340</v>
+        <v>30024230</v>
       </c>
       <c r="C152" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D152">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E152">
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B153">
-        <v>30019341</v>
+        <v>30024233</v>
       </c>
       <c r="C153" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D153">
         <v>25</v>
       </c>
       <c r="E153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B154">
-        <v>30019427</v>
+        <v>30024259</v>
       </c>
       <c r="C154" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D154">
-        <v>10</v>
+        <v>22.5</v>
       </c>
       <c r="E154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B155">
-        <v>30019431</v>
+        <v>30024260</v>
       </c>
       <c r="C155" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D155">
-        <v>10</v>
+        <v>22.5</v>
       </c>
       <c r="E155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B156">
-        <v>30019617</v>
+        <v>30024381</v>
       </c>
       <c r="C156" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D156">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E156">
         <v>3</v>
       </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F156">
+        <v>33.04</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B157">
-        <v>30019713</v>
+        <v>30024406</v>
       </c>
       <c r="C157" t="s">
         <v>19</v>
       </c>
       <c r="D157">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E157">
         <v>3</v>
       </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F157">
+        <v>23.02</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B158">
-        <v>30019714</v>
+        <v>30024410</v>
       </c>
       <c r="C158" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D158">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E158">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F158">
+        <v>40.15</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B159">
-        <v>30019715</v>
+        <v>30024489</v>
       </c>
       <c r="C159" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D159">
+        <v>15</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B160">
+        <v>30010629</v>
+      </c>
+      <c r="C160" t="s">
         <v>20</v>
       </c>
-      <c r="E159">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B160">
-        <v>30019733</v>
-      </c>
-      <c r="C160" t="s">
-        <v>18</v>
-      </c>
       <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B161">
+        <v>30010641</v>
+      </c>
+      <c r="C161" t="s">
         <v>20</v>
       </c>
-      <c r="E160">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B161">
-        <v>30019747</v>
-      </c>
-      <c r="C161" t="s">
-        <v>21</v>
-      </c>
       <c r="D161">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E161">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B162">
-        <v>30019865</v>
+        <v>30018505</v>
       </c>
       <c r="C162" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>2</v>
+      </c>
+      <c r="F162">
+        <v>26.13</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B163">
+        <v>30022469</v>
+      </c>
+      <c r="C163" t="s">
         <v>20</v>
       </c>
-      <c r="E162">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B163">
-        <v>30019895</v>
-      </c>
-      <c r="C163" t="s">
-        <v>21</v>
-      </c>
       <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B164">
+        <v>30022470</v>
+      </c>
+      <c r="C164" t="s">
         <v>20</v>
       </c>
-      <c r="E163">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B164">
-        <v>30019947</v>
-      </c>
-      <c r="C164" t="s">
-        <v>21</v>
-      </c>
       <c r="D164">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B165">
+        <v>30022480</v>
+      </c>
+      <c r="C165" t="s">
+        <v>20</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B166">
+        <v>30022485</v>
+      </c>
+      <c r="C166" t="s">
+        <v>20</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B167">
+        <v>30022486</v>
+      </c>
+      <c r="C167" t="s">
+        <v>20</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>2</v>
+      </c>
+      <c r="F167">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B168">
+        <v>30022487</v>
+      </c>
+      <c r="C168" t="s">
+        <v>20</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>2</v>
+      </c>
+      <c r="F168">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B169">
+        <v>30022489</v>
+      </c>
+      <c r="C169" t="s">
+        <v>20</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B170">
+        <v>30022491</v>
+      </c>
+      <c r="C170" t="s">
+        <v>20</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B171">
+        <v>30022492</v>
+      </c>
+      <c r="C171" t="s">
+        <v>20</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B172">
+        <v>30022493</v>
+      </c>
+      <c r="C172" t="s">
+        <v>20</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B173">
+        <v>30022567</v>
+      </c>
+      <c r="C173" t="s">
+        <v>20</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B165">
-        <v>30020095</v>
-      </c>
-      <c r="C165" t="s">
-        <v>21</v>
-      </c>
-      <c r="D165">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B174">
+        <v>30022570</v>
+      </c>
+      <c r="C174" t="s">
         <v>20</v>
       </c>
-      <c r="E165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B166">
-        <v>30020096</v>
-      </c>
-      <c r="C166" t="s">
-        <v>19</v>
-      </c>
-      <c r="D166">
-        <v>25</v>
-      </c>
-      <c r="E166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B167">
-        <v>30020097</v>
-      </c>
-      <c r="C167" t="s">
-        <v>21</v>
-      </c>
-      <c r="D167">
-        <v>15</v>
-      </c>
-      <c r="E167">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B168">
-        <v>30020098</v>
-      </c>
-      <c r="C168" t="s">
-        <v>21</v>
-      </c>
-      <c r="D168">
-        <v>25</v>
-      </c>
-      <c r="E168">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B169">
-        <v>30020291</v>
-      </c>
-      <c r="C169" t="s">
-        <v>19</v>
-      </c>
-      <c r="D169">
-        <v>30</v>
-      </c>
-      <c r="E169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B170">
-        <v>30020294</v>
-      </c>
-      <c r="C170" t="s">
-        <v>21</v>
-      </c>
-      <c r="D170">
-        <v>30</v>
-      </c>
-      <c r="E170">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B171">
-        <v>30020393</v>
-      </c>
-      <c r="C171" t="s">
-        <v>21</v>
-      </c>
-      <c r="D171">
-        <v>30</v>
-      </c>
-      <c r="E171">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B172">
-        <v>30020410</v>
-      </c>
-      <c r="C172" t="s">
-        <v>19</v>
-      </c>
-      <c r="D172">
-        <v>15</v>
-      </c>
-      <c r="E172">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B173">
-        <v>30020411</v>
-      </c>
-      <c r="C173" t="s">
-        <v>21</v>
-      </c>
-      <c r="D173">
-        <v>15</v>
-      </c>
-      <c r="E173">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B174">
-        <v>30020478</v>
-      </c>
-      <c r="C174" t="s">
-        <v>19</v>
-      </c>
       <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B175">
+        <v>30022637</v>
+      </c>
+      <c r="C175" t="s">
         <v>20</v>
       </c>
-      <c r="E174">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B175">
-        <v>30020479</v>
-      </c>
-      <c r="C175" t="s">
-        <v>21</v>
-      </c>
       <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B176">
+        <v>30022751</v>
+      </c>
+      <c r="C176" t="s">
         <v>20</v>
       </c>
-      <c r="E175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B176">
-        <v>30020825</v>
-      </c>
-      <c r="C176" t="s">
-        <v>19</v>
-      </c>
       <c r="D176">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E176">
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B177">
-        <v>30020826</v>
+        <v>30022755</v>
       </c>
       <c r="C177" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D177">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E177">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B178">
-        <v>30020950</v>
+        <v>30023408</v>
       </c>
       <c r="C178" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D178">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E178">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F178">
+        <v>26.78</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B179">
-        <v>30020951</v>
+        <v>30024407</v>
       </c>
       <c r="C179" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D179">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E179">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F179">
+        <v>26.33</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B180">
-        <v>30020952</v>
+        <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D180">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E180">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F180">
+        <v>25.91</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B181">
-        <v>30021076</v>
+        <v>3005668</v>
       </c>
       <c r="C181" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D181">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E181">
         <v>2</v>
       </c>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F181">
+        <v>34.26</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B182">
-        <v>30021240</v>
+        <v>3005982</v>
       </c>
       <c r="C182" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D182">
         <v>20</v>
@@ -4743,38 +5058,44 @@
       <c r="E182">
         <v>2</v>
       </c>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F182">
+        <v>30.55</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B183">
-        <v>30021245</v>
+        <v>3006222</v>
       </c>
       <c r="C183" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D183">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E183">
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B184">
-        <v>30021246</v>
+        <v>3006348</v>
       </c>
       <c r="C184" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D184">
-        <v>25</v>
+        <v>42.5</v>
       </c>
       <c r="E184">
         <v>2</v>
       </c>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F184">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B185">
-        <v>30021247</v>
+        <v>3006683</v>
       </c>
       <c r="C185" t="s">
         <v>21</v>
@@ -4785,38 +5106,41 @@
       <c r="E185">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F185">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B186">
-        <v>30021248</v>
+        <v>3006915</v>
       </c>
       <c r="C186" t="s">
         <v>21</v>
       </c>
       <c r="D186">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E186">
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B187">
-        <v>30021250</v>
+        <v>3006988</v>
       </c>
       <c r="C187" t="s">
         <v>21</v>
       </c>
       <c r="D187">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E187">
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B188">
-        <v>30021253</v>
+        <v>3006989</v>
       </c>
       <c r="C188" t="s">
         <v>21</v>
@@ -4825,54 +5149,54 @@
         <v>40</v>
       </c>
       <c r="E188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B189">
-        <v>30021256</v>
+        <v>3006990</v>
       </c>
       <c r="C189" t="s">
         <v>21</v>
       </c>
       <c r="D189">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B190">
-        <v>30021258</v>
+        <v>3006991</v>
       </c>
       <c r="C190" t="s">
         <v>21</v>
       </c>
       <c r="D190">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="E190">
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B191">
-        <v>30021264</v>
+        <v>3006993</v>
       </c>
       <c r="C191" t="s">
         <v>21</v>
       </c>
       <c r="D191">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E191">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B192">
-        <v>30021265</v>
+        <v>3007010</v>
       </c>
       <c r="C192" t="s">
         <v>21</v>
@@ -4883,10 +5207,13 @@
       <c r="E192">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F192">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B193">
-        <v>30021316</v>
+        <v>3007011</v>
       </c>
       <c r="C193" t="s">
         <v>21</v>
@@ -4898,9 +5225,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B194">
-        <v>30021317</v>
+        <v>3007014</v>
       </c>
       <c r="C194" t="s">
         <v>21</v>
@@ -4909,54 +5236,60 @@
         <v>30</v>
       </c>
       <c r="E194">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F194">
+        <v>16.57</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B195">
-        <v>30021318</v>
+        <v>3007023</v>
       </c>
       <c r="C195" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D195">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B196">
-        <v>30021451</v>
+        <v>3007226</v>
       </c>
       <c r="C196" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D196">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="E196">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F196">
+        <v>19.809999999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B197">
-        <v>30021452</v>
+        <v>3007231</v>
       </c>
       <c r="C197" t="s">
         <v>21</v>
       </c>
       <c r="D197">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E197">
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B198">
-        <v>30021455</v>
+        <v>3007233</v>
       </c>
       <c r="C198" t="s">
         <v>21</v>
@@ -4968,191 +5301,194 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B199">
-        <v>30021456</v>
+        <v>3007234</v>
       </c>
       <c r="C199" t="s">
         <v>21</v>
       </c>
       <c r="D199">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E199">
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B200">
-        <v>30021461</v>
+        <v>3007235</v>
       </c>
       <c r="C200" t="s">
         <v>21</v>
       </c>
       <c r="D200">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B201">
-        <v>30021972</v>
+        <v>3007261</v>
       </c>
       <c r="C201" t="s">
         <v>21</v>
       </c>
       <c r="D201">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E201">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B202">
-        <v>30021973</v>
+        <v>3008188</v>
       </c>
       <c r="C202" t="s">
         <v>21</v>
       </c>
       <c r="D202">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="E202">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B203">
-        <v>30021977</v>
+        <v>3008190</v>
       </c>
       <c r="C203" t="s">
         <v>21</v>
       </c>
       <c r="D203">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="E203">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B204">
-        <v>30022047</v>
+        <v>3008201</v>
       </c>
       <c r="C204" t="s">
         <v>21</v>
       </c>
       <c r="D204">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="E204">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>203954</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B205">
-        <v>30022048</v>
+        <v>3009758</v>
       </c>
       <c r="C205" t="s">
         <v>21</v>
       </c>
       <c r="D205">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E205">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B206">
-        <v>30022049</v>
+        <v>3009759</v>
       </c>
       <c r="C206" t="s">
         <v>21</v>
       </c>
       <c r="D206">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E206">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B207">
-        <v>30022050</v>
+        <v>3009760</v>
       </c>
       <c r="C207" t="s">
         <v>21</v>
       </c>
       <c r="D207">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="E207">
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B208">
-        <v>30022051</v>
+        <v>3009761</v>
       </c>
       <c r="C208" t="s">
         <v>21</v>
       </c>
       <c r="D208">
-        <v>30</v>
+        <v>37.5</v>
       </c>
       <c r="E208">
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B209">
-        <v>30022052</v>
+        <v>3009762</v>
       </c>
       <c r="C209" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D209">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E209">
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B210">
-        <v>30022053</v>
+        <v>30010092</v>
       </c>
       <c r="C210" t="s">
         <v>21</v>
       </c>
       <c r="D210">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E210">
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B211">
-        <v>30022054</v>
+        <v>30010093</v>
       </c>
       <c r="C211" t="s">
         <v>21</v>
       </c>
       <c r="D211">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E211">
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B212">
-        <v>30022057</v>
+        <v>30010095</v>
       </c>
       <c r="C212" t="s">
         <v>21</v>
@@ -5163,69 +5499,72 @@
       <c r="E212">
         <v>2</v>
       </c>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F212">
+        <v>41.28</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B213">
-        <v>30022060</v>
+        <v>30010096</v>
       </c>
       <c r="C213" t="s">
         <v>21</v>
       </c>
       <c r="D213">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E213">
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B214">
-        <v>30022061</v>
+        <v>30010314</v>
       </c>
       <c r="C214" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D214">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E214">
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B215">
-        <v>30022064</v>
+        <v>30010318</v>
       </c>
       <c r="C215" t="s">
         <v>21</v>
       </c>
       <c r="D215">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E215">
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B216">
-        <v>30022066</v>
+        <v>30010323</v>
       </c>
       <c r="C216" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D216">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E216">
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B217">
-        <v>30022067</v>
+        <v>30010371</v>
       </c>
       <c r="C217" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D217">
         <v>25</v>
@@ -5234,9 +5573,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B218">
-        <v>30022069</v>
+        <v>30010623</v>
       </c>
       <c r="C218" t="s">
         <v>21</v>
@@ -5248,54 +5587,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B219">
-        <v>30022071</v>
+        <v>30010624</v>
       </c>
       <c r="C219" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D219">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E219">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B220">
-        <v>30022073</v>
+        <v>30010634</v>
       </c>
       <c r="C220" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D220">
-        <v>30</v>
+        <v>27.5</v>
       </c>
       <c r="E220">
         <v>2</v>
       </c>
-    </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F220">
+        <v>29.75</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B221">
-        <v>30022074</v>
+        <v>30010648</v>
       </c>
       <c r="C221" t="s">
         <v>21</v>
       </c>
       <c r="D221">
-        <v>30</v>
+        <v>12.5</v>
       </c>
       <c r="E221">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B222">
-        <v>30022075</v>
+        <v>30010700</v>
       </c>
       <c r="C222" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D222">
         <v>30</v>
@@ -5304,527 +5646,587 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B223">
-        <v>30022094</v>
+        <v>30010707</v>
       </c>
       <c r="C223" t="s">
         <v>21</v>
       </c>
       <c r="D223">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B224">
-        <v>30022153</v>
+        <v>30010710</v>
       </c>
       <c r="C224" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D224">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B225">
-        <v>30022164</v>
+        <v>30010712</v>
       </c>
       <c r="C225" t="s">
         <v>21</v>
       </c>
       <c r="D225">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B226">
-        <v>30022267</v>
+        <v>30010796</v>
       </c>
       <c r="C226" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D226">
-        <v>20</v>
+        <v>37.5</v>
       </c>
       <c r="E226">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F226">
+        <v>38.83</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B227">
-        <v>30022273</v>
+        <v>30011003</v>
       </c>
       <c r="C227" t="s">
         <v>21</v>
       </c>
       <c r="D227">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E227">
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B228">
-        <v>30022345</v>
+        <v>30011560</v>
       </c>
       <c r="C228" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D228">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E228">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B229">
-        <v>30022348</v>
+        <v>30011561</v>
       </c>
       <c r="C229" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D229">
+        <v>35</v>
+      </c>
+      <c r="E229">
+        <v>2</v>
+      </c>
+      <c r="F229">
+        <v>31.62</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B230">
+        <v>30011562</v>
+      </c>
+      <c r="C230" t="s">
+        <v>21</v>
+      </c>
+      <c r="D230">
+        <v>45</v>
+      </c>
+      <c r="E230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B231">
+        <v>30011563</v>
+      </c>
+      <c r="C231" t="s">
+        <v>21</v>
+      </c>
+      <c r="D231">
         <v>40</v>
       </c>
-      <c r="E229">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B230">
-        <v>30022352</v>
-      </c>
-      <c r="C230" t="s">
-        <v>18</v>
-      </c>
-      <c r="D230">
-        <v>20</v>
-      </c>
-      <c r="E230">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B231">
-        <v>30022356</v>
-      </c>
-      <c r="C231" t="s">
-        <v>19</v>
-      </c>
-      <c r="D231">
-        <v>20</v>
-      </c>
       <c r="E231">
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B232">
-        <v>30022360</v>
+        <v>30013600</v>
       </c>
       <c r="C232" t="s">
         <v>21</v>
       </c>
       <c r="D232">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E232">
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B233">
-        <v>30022397</v>
+        <v>30014981</v>
       </c>
       <c r="C233" t="s">
         <v>21</v>
       </c>
       <c r="D233">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B234">
-        <v>30022401</v>
+        <v>30014993</v>
       </c>
       <c r="C234" t="s">
         <v>21</v>
       </c>
       <c r="D234">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B235">
-        <v>30022406</v>
+        <v>30015853</v>
       </c>
       <c r="C235" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D235">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E235">
         <v>2</v>
       </c>
-    </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F235">
+        <v>20.55</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B236">
-        <v>30022412</v>
+        <v>30016011</v>
       </c>
       <c r="C236" t="s">
         <v>21</v>
       </c>
       <c r="D236">
-        <v>37.5</v>
+        <v>30</v>
       </c>
       <c r="E236">
         <v>2</v>
       </c>
-    </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F236">
+        <v>32.450000000000003</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B237">
-        <v>30022418</v>
+        <v>30016014</v>
       </c>
       <c r="C237" t="s">
         <v>21</v>
       </c>
       <c r="D237">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E237">
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B238">
-        <v>30022423</v>
+        <v>30016022</v>
       </c>
       <c r="C238" t="s">
         <v>21</v>
       </c>
       <c r="D238">
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="E238">
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B239">
-        <v>30022429</v>
+        <v>30016122</v>
       </c>
       <c r="C239" t="s">
         <v>21</v>
       </c>
       <c r="D239">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E239">
         <v>2</v>
       </c>
-    </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F239">
+        <v>23.67</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B240">
-        <v>30022453</v>
+        <v>30016125</v>
       </c>
       <c r="C240" t="s">
         <v>21</v>
       </c>
       <c r="D240">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E240">
         <v>2</v>
       </c>
-    </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F240">
+        <v>31.59</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B241">
-        <v>30022454</v>
+        <v>30016127</v>
       </c>
       <c r="C241" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D241">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F241">
+        <v>18.73</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B242">
-        <v>30022468</v>
+        <v>30016129</v>
       </c>
       <c r="C242" t="s">
         <v>21</v>
       </c>
       <c r="D242">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E242">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B243">
-        <v>30022469</v>
+        <v>30016130</v>
       </c>
       <c r="C243" t="s">
         <v>21</v>
       </c>
       <c r="D243">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E243">
         <v>2</v>
       </c>
-    </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F243">
+        <v>30.05</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B244">
-        <v>30022470</v>
+        <v>30016131</v>
       </c>
       <c r="C244" t="s">
         <v>21</v>
       </c>
       <c r="D244">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E244">
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B245">
-        <v>30022471</v>
+        <v>30016150</v>
       </c>
       <c r="C245" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D245">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B246">
-        <v>30022472</v>
+        <v>30016151</v>
       </c>
       <c r="C246" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D246">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F246">
+        <v>22.72</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B247">
-        <v>30022476</v>
+        <v>30016178</v>
       </c>
       <c r="C247" t="s">
         <v>21</v>
       </c>
       <c r="D247">
+        <v>15</v>
+      </c>
+      <c r="E247">
+        <v>2</v>
+      </c>
+      <c r="F247">
+        <v>24.59</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B248">
+        <v>30016600</v>
+      </c>
+      <c r="C248" t="s">
+        <v>21</v>
+      </c>
+      <c r="D248">
         <v>25</v>
       </c>
-      <c r="E247">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B248">
-        <v>30022477</v>
-      </c>
-      <c r="C248" t="s">
-        <v>19</v>
-      </c>
-      <c r="D248">
-        <v>20</v>
-      </c>
       <c r="E248">
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B249">
-        <v>30022478</v>
+        <v>30016901</v>
       </c>
       <c r="C249" t="s">
         <v>21</v>
       </c>
       <c r="D249">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E249">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F249">
+        <v>27.22</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B250">
-        <v>30022479</v>
+        <v>30017824</v>
       </c>
       <c r="C250" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D250">
-        <v>37.5</v>
+        <v>30</v>
       </c>
       <c r="E250">
         <v>2</v>
       </c>
-    </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F250">
+        <v>27.42</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B251">
-        <v>30022480</v>
+        <v>30017826</v>
       </c>
       <c r="C251" t="s">
         <v>21</v>
       </c>
       <c r="D251">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E251">
         <v>2</v>
       </c>
-    </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F251">
+        <v>22.32</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B252">
-        <v>30022481</v>
+        <v>30019051</v>
       </c>
       <c r="C252" t="s">
         <v>21</v>
       </c>
       <c r="D252">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E252">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F252">
+        <v>34.33</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B253">
-        <v>30022482</v>
+        <v>30019056</v>
       </c>
       <c r="C253" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D253">
         <v>20</v>
       </c>
       <c r="E253">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F253">
+        <v>32.39</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B254">
-        <v>30022484</v>
+        <v>30019059</v>
       </c>
       <c r="C254" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D254">
         <v>25</v>
       </c>
       <c r="E254">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>25.64</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B255">
-        <v>30022485</v>
+        <v>30019060</v>
       </c>
       <c r="C255" t="s">
         <v>21</v>
       </c>
       <c r="D255">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E255">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>22.34</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B256">
-        <v>30022486</v>
+        <v>30019061</v>
       </c>
       <c r="C256" t="s">
         <v>21</v>
       </c>
       <c r="D256">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E256">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>34.21</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B257">
-        <v>30022487</v>
+        <v>30019091</v>
       </c>
       <c r="C257" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D257">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E257">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>39.770000000000003</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B258">
-        <v>30022488</v>
+        <v>30019172</v>
       </c>
       <c r="C258" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D258">
         <v>15</v>
       </c>
       <c r="E258">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B259">
-        <v>30022489</v>
+        <v>30019173</v>
       </c>
       <c r="C259" t="s">
         <v>21</v>
       </c>
       <c r="D259">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E259">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>29.94</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B260">
-        <v>30022490</v>
+        <v>30019175</v>
       </c>
       <c r="C260" t="s">
         <v>21</v>
@@ -5833,208 +6235,232 @@
         <v>25</v>
       </c>
       <c r="E260">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B261">
-        <v>30022491</v>
+        <v>30019180</v>
       </c>
       <c r="C261" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D261">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="E261">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B262">
-        <v>30022492</v>
+        <v>30019214</v>
       </c>
       <c r="C262" t="s">
         <v>21</v>
       </c>
       <c r="D262">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E262">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B263">
-        <v>30022493</v>
+        <v>30019329</v>
       </c>
       <c r="C263" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D263">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E263">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B264">
-        <v>30022494</v>
+        <v>30019341</v>
       </c>
       <c r="C264" t="s">
         <v>21</v>
       </c>
       <c r="D264">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E264">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F264">
+        <v>41.99</v>
+      </c>
+    </row>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B265">
-        <v>30022495</v>
+        <v>30019427</v>
       </c>
       <c r="C265" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D265">
         <v>10</v>
       </c>
       <c r="E265">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B266">
-        <v>30022504</v>
+        <v>30019431</v>
       </c>
       <c r="C266" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D266">
-        <v>27.5</v>
+        <v>10</v>
       </c>
       <c r="E266">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B267">
-        <v>30022505</v>
+        <v>30019714</v>
       </c>
       <c r="C267" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D267">
         <v>25</v>
       </c>
       <c r="E267">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F267">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B268">
-        <v>30022529</v>
+        <v>30019733</v>
       </c>
       <c r="C268" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D268">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F268">
+        <v>30.42</v>
+      </c>
+    </row>
+    <row r="269" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B269">
-        <v>30022530</v>
+        <v>30019947</v>
       </c>
       <c r="C269" t="s">
         <v>21</v>
       </c>
       <c r="D269">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E269">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B270">
-        <v>30022567</v>
+        <v>30020098</v>
       </c>
       <c r="C270" t="s">
         <v>21</v>
       </c>
       <c r="D270">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E270">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F270">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="271" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B271">
-        <v>30022569</v>
+        <v>30020291</v>
       </c>
       <c r="C271" t="s">
+        <v>21</v>
+      </c>
+      <c r="D271">
+        <v>30</v>
+      </c>
+      <c r="E271">
+        <v>2</v>
+      </c>
+      <c r="F271">
+        <v>35.15</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B272">
+        <v>30020478</v>
+      </c>
+      <c r="C272" t="s">
+        <v>21</v>
+      </c>
+      <c r="D272">
         <v>20</v>
       </c>
-      <c r="D271">
-        <v>20</v>
-      </c>
-      <c r="E271">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B272">
-        <v>30022570</v>
-      </c>
-      <c r="C272" t="s">
-        <v>19</v>
-      </c>
-      <c r="D272">
-        <v>0</v>
-      </c>
       <c r="E272">
         <v>2</v>
       </c>
-    </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F272">
+        <v>25.84</v>
+      </c>
+    </row>
+    <row r="273" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B273">
-        <v>30022571</v>
+        <v>30020479</v>
       </c>
       <c r="C273" t="s">
         <v>21</v>
       </c>
       <c r="D273">
-        <v>27.5</v>
+        <v>20</v>
       </c>
       <c r="E273">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F273">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B274">
-        <v>30022572</v>
+        <v>30021240</v>
       </c>
       <c r="C274" t="s">
         <v>21</v>
       </c>
       <c r="D274">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E274">
         <v>2</v>
       </c>
-    </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F274">
+        <v>43.46</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B275">
-        <v>30022634</v>
+        <v>30021245</v>
       </c>
       <c r="C275" t="s">
         <v>21</v>
@@ -6045,1032 +6471,1173 @@
       <c r="E275">
         <v>2</v>
       </c>
-    </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F275">
+        <v>38.24</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B276">
-        <v>30022635</v>
+        <v>30021246</v>
       </c>
       <c r="C276" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D276">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="E276">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F276">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B277">
-        <v>30022636</v>
+        <v>30021247</v>
       </c>
       <c r="C277" t="s">
         <v>21</v>
       </c>
       <c r="D277">
-        <v>10</v>
+        <v>37.5</v>
       </c>
       <c r="E277">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F277">
+        <v>37.76</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B278">
-        <v>30022637</v>
+        <v>30021248</v>
       </c>
       <c r="C278" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D278">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E278">
         <v>2</v>
       </c>
-    </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F278">
+        <v>41.09</v>
+      </c>
+    </row>
+    <row r="279" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B279">
-        <v>30022750</v>
+        <v>30021250</v>
       </c>
       <c r="C279" t="s">
         <v>21</v>
       </c>
       <c r="D279">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E279">
         <v>2</v>
       </c>
-    </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F279">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="280" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B280">
-        <v>30022751</v>
+        <v>30021258</v>
       </c>
       <c r="C280" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D280">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E280">
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B281">
-        <v>30022752</v>
+        <v>30021317</v>
       </c>
       <c r="C281" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D281">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E281">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B282">
-        <v>30022753</v>
+        <v>30021318</v>
       </c>
       <c r="C282" t="s">
         <v>21</v>
       </c>
       <c r="D282">
+        <v>15</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282">
+        <v>41.49</v>
+      </c>
+    </row>
+    <row r="283" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B283">
+        <v>30021452</v>
+      </c>
+      <c r="C283" t="s">
+        <v>21</v>
+      </c>
+      <c r="D283">
+        <v>25</v>
+      </c>
+      <c r="E283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B284">
+        <v>30021977</v>
+      </c>
+      <c r="C284" t="s">
+        <v>21</v>
+      </c>
+      <c r="D284">
+        <v>20</v>
+      </c>
+      <c r="E284">
+        <v>2</v>
+      </c>
+      <c r="F284">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="285" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B285">
+        <v>30022050</v>
+      </c>
+      <c r="C285" t="s">
+        <v>21</v>
+      </c>
+      <c r="D285">
+        <v>37.5</v>
+      </c>
+      <c r="E285">
+        <v>2</v>
+      </c>
+      <c r="F285">
+        <v>20.61</v>
+      </c>
+    </row>
+    <row r="286" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B286">
+        <v>30022051</v>
+      </c>
+      <c r="C286" t="s">
+        <v>21</v>
+      </c>
+      <c r="D286">
         <v>30</v>
       </c>
-      <c r="E282">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B283">
-        <v>30022754</v>
-      </c>
-      <c r="C283" t="s">
-        <v>19</v>
-      </c>
-      <c r="D283">
-        <v>20</v>
-      </c>
-      <c r="E283">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B284">
-        <v>30022755</v>
-      </c>
-      <c r="C284" t="s">
-        <v>19</v>
-      </c>
-      <c r="D284">
-        <v>0</v>
-      </c>
-      <c r="E284">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B285">
-        <v>30022756</v>
-      </c>
-      <c r="C285" t="s">
-        <v>19</v>
-      </c>
-      <c r="D285">
-        <v>25</v>
-      </c>
-      <c r="E285">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B286">
-        <v>30022778</v>
-      </c>
-      <c r="C286" t="s">
-        <v>19</v>
-      </c>
-      <c r="D286">
-        <v>20</v>
-      </c>
       <c r="E286">
         <v>2</v>
       </c>
-    </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F286">
+        <v>25.49</v>
+      </c>
+    </row>
+    <row r="287" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B287">
-        <v>30022795</v>
+        <v>30022052</v>
       </c>
       <c r="C287" t="s">
         <v>21</v>
       </c>
       <c r="D287">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E287">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F287">
+        <v>26.22</v>
+      </c>
+    </row>
+    <row r="288" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B288">
-        <v>30022805</v>
+        <v>30022053</v>
       </c>
       <c r="C288" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D288">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E288">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F288">
+        <v>24.04</v>
+      </c>
+    </row>
+    <row r="289" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B289">
-        <v>30022807</v>
+        <v>30022064</v>
       </c>
       <c r="C289" t="s">
         <v>21</v>
       </c>
       <c r="D289">
+        <v>20</v>
+      </c>
+      <c r="E289">
+        <v>2</v>
+      </c>
+      <c r="F289">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="290" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B290">
+        <v>30022066</v>
+      </c>
+      <c r="C290" t="s">
+        <v>21</v>
+      </c>
+      <c r="D290">
         <v>25</v>
       </c>
-      <c r="E289">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B290">
-        <v>30022808</v>
-      </c>
-      <c r="C290" t="s">
-        <v>19</v>
-      </c>
-      <c r="D290">
-        <v>15</v>
-      </c>
       <c r="E290">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F290">
+        <v>25.68</v>
+      </c>
+    </row>
+    <row r="291" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B291">
-        <v>30022809</v>
+        <v>30022067</v>
       </c>
       <c r="C291" t="s">
         <v>21</v>
       </c>
       <c r="D291">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E291">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F291">
+        <v>26.12</v>
+      </c>
+    </row>
+    <row r="292" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B292">
-        <v>30022878</v>
+        <v>30022069</v>
       </c>
       <c r="C292" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D292">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E292">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F292">
+        <v>23.79</v>
+      </c>
+    </row>
+    <row r="293" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B293">
-        <v>30022893</v>
+        <v>30022153</v>
       </c>
       <c r="C293" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D293">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E293">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B294">
-        <v>30022894</v>
+        <v>30022164</v>
       </c>
       <c r="C294" t="s">
         <v>21</v>
       </c>
       <c r="D294">
-        <v>132.5</v>
+        <v>25</v>
       </c>
       <c r="E294">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B295">
-        <v>30023010</v>
+        <v>30022348</v>
       </c>
       <c r="C295" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D295">
+        <v>40</v>
+      </c>
+      <c r="E295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B296">
+        <v>30022352</v>
+      </c>
+      <c r="C296" t="s">
+        <v>21</v>
+      </c>
+      <c r="D296">
         <v>20</v>
       </c>
-      <c r="E295">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B296">
-        <v>30023058</v>
-      </c>
-      <c r="C296" t="s">
-        <v>19</v>
-      </c>
-      <c r="D296">
-        <v>40</v>
-      </c>
       <c r="E296">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F296">
+        <v>24.63</v>
+      </c>
+    </row>
+    <row r="297" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B297">
-        <v>30023380</v>
+        <v>30022360</v>
       </c>
       <c r="C297" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D297">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E297">
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B298">
-        <v>30023408</v>
+        <v>30022397</v>
       </c>
       <c r="C298" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D298">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E298">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B299">
-        <v>30023409</v>
+        <v>30022401</v>
       </c>
       <c r="C299" t="s">
         <v>21</v>
       </c>
       <c r="D299">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E299">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B300">
-        <v>30023410</v>
+        <v>30022406</v>
       </c>
       <c r="C300" t="s">
         <v>21</v>
       </c>
       <c r="D300">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E300">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B301">
-        <v>30023411</v>
+        <v>30022412</v>
       </c>
       <c r="C301" t="s">
         <v>21</v>
       </c>
       <c r="D301">
-        <v>15</v>
+        <v>37.5</v>
       </c>
       <c r="E301">
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B302">
-        <v>30023413</v>
+        <v>30022418</v>
       </c>
       <c r="C302" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D302">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E302">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B303">
-        <v>30023423</v>
+        <v>30022423</v>
       </c>
       <c r="C303" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D303">
-        <v>35</v>
+        <v>37.5</v>
       </c>
       <c r="E303">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B304">
-        <v>30023484</v>
+        <v>30022429</v>
       </c>
       <c r="C304" t="s">
         <v>21</v>
       </c>
       <c r="D304">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E304">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B305">
-        <v>30023496</v>
+        <v>30022453</v>
       </c>
       <c r="C305" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D305">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E305">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B306">
-        <v>30023497</v>
+        <v>30022454</v>
       </c>
       <c r="C306" t="s">
         <v>21</v>
       </c>
       <c r="D306">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="E306">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F306">
+        <v>28.01</v>
+      </c>
+    </row>
+    <row r="307" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B307">
-        <v>30023499</v>
+        <v>30022471</v>
       </c>
       <c r="C307" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D307">
-        <v>27.5</v>
+        <v>20</v>
       </c>
       <c r="E307">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F307">
+        <v>20.52</v>
+      </c>
+    </row>
+    <row r="308" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B308">
-        <v>30023500</v>
+        <v>30022472</v>
       </c>
       <c r="C308" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D308">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E308">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F308">
+        <v>27.06</v>
+      </c>
+    </row>
+    <row r="309" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B309">
-        <v>30023501</v>
+        <v>30022476</v>
       </c>
       <c r="C309" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D309">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E309">
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B310">
-        <v>30023502</v>
+        <v>30022479</v>
       </c>
       <c r="C310" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D310">
-        <v>30</v>
+        <v>37.5</v>
       </c>
       <c r="E310">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B311">
-        <v>30023744</v>
+        <v>30022484</v>
       </c>
       <c r="C311" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D311">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E311">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B312">
-        <v>30023887</v>
+        <v>30022490</v>
       </c>
       <c r="C312" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D312">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E312">
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B313">
-        <v>30023888</v>
+        <v>30022495</v>
       </c>
       <c r="C313" t="s">
         <v>21</v>
       </c>
       <c r="D313">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E313">
         <v>2</v>
       </c>
-    </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F313">
+        <v>22.85</v>
+      </c>
+    </row>
+    <row r="314" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B314">
-        <v>30023919</v>
+        <v>30022571</v>
       </c>
       <c r="C314" t="s">
         <v>21</v>
       </c>
       <c r="D314">
-        <v>30</v>
+        <v>27.5</v>
       </c>
       <c r="E314">
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B315">
-        <v>30023922</v>
+        <v>30022572</v>
       </c>
       <c r="C315" t="s">
         <v>21</v>
       </c>
       <c r="D315">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E315">
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B316">
-        <v>30023932</v>
+        <v>30022750</v>
       </c>
       <c r="C316" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D316">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E316">
         <v>2</v>
       </c>
-    </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F316">
+        <v>36.31</v>
+      </c>
+    </row>
+    <row r="317" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B317">
-        <v>30023939</v>
+        <v>30022752</v>
       </c>
       <c r="C317" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D317">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E317">
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B318">
-        <v>30023940</v>
+        <v>30022756</v>
       </c>
       <c r="C318" t="s">
         <v>21</v>
       </c>
       <c r="D318">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E318">
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B319">
-        <v>30023941</v>
+        <v>30022807</v>
       </c>
       <c r="C319" t="s">
         <v>21</v>
       </c>
       <c r="D319">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E319">
         <v>2</v>
       </c>
-    </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F319">
+        <v>33.159999999999997</v>
+      </c>
+    </row>
+    <row r="320" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B320">
-        <v>30023943</v>
+        <v>30022808</v>
       </c>
       <c r="C320" t="s">
         <v>21</v>
       </c>
       <c r="D320">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E320">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F320">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="321" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B321">
-        <v>30023944</v>
+        <v>30022878</v>
       </c>
       <c r="C321" t="s">
         <v>21</v>
       </c>
       <c r="D321">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E321">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F321">
+        <v>29.09</v>
+      </c>
+    </row>
+    <row r="322" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B322">
-        <v>30023946</v>
+        <v>30023058</v>
       </c>
       <c r="C322" t="s">
         <v>21</v>
       </c>
       <c r="D322">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E322">
         <v>3</v>
       </c>
-    </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F322">
+        <v>35.49</v>
+      </c>
+    </row>
+    <row r="323" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B323">
-        <v>30023951</v>
+        <v>30023410</v>
       </c>
       <c r="C323" t="s">
         <v>21</v>
       </c>
       <c r="D323">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E323">
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B324">
-        <v>30023952</v>
+        <v>30023413</v>
       </c>
       <c r="C324" t="s">
         <v>21</v>
       </c>
       <c r="D324">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E324">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="F324">
+        <v>32.67</v>
+      </c>
+    </row>
+    <row r="325" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B325">
-        <v>30023953</v>
+        <v>30023423</v>
       </c>
       <c r="C325" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D325">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E325">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F325">
+        <v>32.33</v>
+      </c>
+    </row>
+    <row r="326" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B326">
-        <v>30023954</v>
+        <v>30023496</v>
       </c>
       <c r="C326" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D326">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E326">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B327">
-        <v>30023955</v>
+        <v>30023500</v>
       </c>
       <c r="C327" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D327">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E327">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="328" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F327">
+        <v>19.87</v>
+      </c>
+    </row>
+    <row r="328" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B328">
-        <v>30023956</v>
+        <v>30023501</v>
       </c>
       <c r="C328" t="s">
         <v>21</v>
       </c>
       <c r="D328">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E328">
         <v>2</v>
       </c>
-    </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F328">
+        <v>30.93</v>
+      </c>
+    </row>
+    <row r="329" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B329">
-        <v>30023957</v>
+        <v>30023502</v>
       </c>
       <c r="C329" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D329">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E329">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="2:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F329">
+        <v>29.95</v>
+      </c>
+    </row>
+    <row r="330" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B330">
-        <v>30023958</v>
+        <v>30023887</v>
       </c>
       <c r="C330" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D330">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E330">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F330">
+        <v>26.22</v>
+      </c>
+    </row>
+    <row r="331" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B331">
-        <v>30024004</v>
+        <v>30023888</v>
       </c>
       <c r="C331" t="s">
         <v>21</v>
       </c>
       <c r="D331">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E331">
         <v>2</v>
       </c>
-    </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F331">
+        <v>26.22</v>
+      </c>
+    </row>
+    <row r="332" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B332">
-        <v>30024007</v>
+        <v>30023919</v>
       </c>
       <c r="C332" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D332">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E332">
         <v>2</v>
       </c>
-    </row>
-    <row r="333" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F332">
+        <v>17.11</v>
+      </c>
+    </row>
+    <row r="333" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B333">
-        <v>30024009</v>
+        <v>30023922</v>
       </c>
       <c r="C333" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D333">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E333">
         <v>2</v>
       </c>
-    </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F333">
+        <v>18.64</v>
+      </c>
+    </row>
+    <row r="334" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B334">
-        <v>30024013</v>
+        <v>30023932</v>
       </c>
       <c r="C334" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D334">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E334">
         <v>2</v>
       </c>
-    </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F334">
+        <v>30.26</v>
+      </c>
+    </row>
+    <row r="335" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B335">
-        <v>30024019</v>
+        <v>30023939</v>
       </c>
       <c r="C335" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D335">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E335">
         <v>2</v>
       </c>
-    </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F335">
+        <v>21.55</v>
+      </c>
+    </row>
+    <row r="336" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B336">
-        <v>30024032</v>
+        <v>30023940</v>
       </c>
       <c r="C336" t="s">
         <v>21</v>
       </c>
       <c r="D336">
-        <v>17.5</v>
+        <v>50</v>
       </c>
       <c r="E336">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F336">
+        <v>20.86</v>
+      </c>
+    </row>
+    <row r="337" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B337">
-        <v>30024091</v>
+        <v>30023941</v>
       </c>
       <c r="C337" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D337">
+        <v>50</v>
+      </c>
+      <c r="E337">
+        <v>2</v>
+      </c>
+      <c r="F337">
+        <v>21.34</v>
+      </c>
+    </row>
+    <row r="338" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B338">
+        <v>30023943</v>
+      </c>
+      <c r="C338" t="s">
+        <v>21</v>
+      </c>
+      <c r="D338">
+        <v>25</v>
+      </c>
+      <c r="E338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B339">
+        <v>30023944</v>
+      </c>
+      <c r="C339" t="s">
+        <v>21</v>
+      </c>
+      <c r="D339">
+        <v>25</v>
+      </c>
+      <c r="E339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B340">
+        <v>30023952</v>
+      </c>
+      <c r="C340" t="s">
+        <v>21</v>
+      </c>
+      <c r="D340">
         <v>30</v>
       </c>
-      <c r="E337">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B338">
-        <v>30024094</v>
-      </c>
-      <c r="C338" t="s">
-        <v>18</v>
-      </c>
-      <c r="D338">
-        <v>30</v>
-      </c>
-      <c r="E338">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B339">
-        <v>30024096</v>
-      </c>
-      <c r="C339" t="s">
-        <v>19</v>
-      </c>
-      <c r="D339">
-        <v>20</v>
-      </c>
-      <c r="E339">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="340" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B340">
-        <v>30024098</v>
-      </c>
-      <c r="C340" t="s">
-        <v>19</v>
-      </c>
-      <c r="D340">
-        <v>20</v>
-      </c>
       <c r="E340">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F340">
+        <v>32.450000000000003</v>
+      </c>
+    </row>
+    <row r="341" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B341">
-        <v>30024099</v>
+        <v>30023953</v>
       </c>
       <c r="C341" t="s">
         <v>21</v>
       </c>
       <c r="D341">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E341">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F341">
+        <v>32.450000000000003</v>
+      </c>
+    </row>
+    <row r="342" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B342">
-        <v>30024100</v>
+        <v>30023954</v>
       </c>
       <c r="C342" t="s">
         <v>21</v>
       </c>
       <c r="D342">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E342">
         <v>2</v>
       </c>
-    </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F342">
+        <v>27.22</v>
+      </c>
+    </row>
+    <row r="343" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B343">
-        <v>30024101</v>
+        <v>30023955</v>
       </c>
       <c r="C343" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D343">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E343">
         <v>2</v>
       </c>
-    </row>
-    <row r="344" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F343">
+        <v>23.81</v>
+      </c>
+    </row>
+    <row r="344" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B344">
-        <v>30024102</v>
+        <v>30023956</v>
       </c>
       <c r="C344" t="s">
         <v>21</v>
       </c>
       <c r="D344">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E344">
         <v>2</v>
       </c>
-    </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F344">
+        <v>22.72</v>
+      </c>
+    </row>
+    <row r="345" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B345">
-        <v>30024103</v>
+        <v>30024004</v>
       </c>
       <c r="C345" t="s">
         <v>21</v>
       </c>
       <c r="D345">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E345">
         <v>2</v>
       </c>
-    </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F345">
+        <v>34.32</v>
+      </c>
+    </row>
+    <row r="346" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B346">
-        <v>30024104</v>
+        <v>30024007</v>
       </c>
       <c r="C346" t="s">
         <v>21</v>
       </c>
       <c r="D346">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E346">
         <v>2</v>
       </c>
-    </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F346">
+        <v>33.020000000000003</v>
+      </c>
+    </row>
+    <row r="347" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B347">
-        <v>30024108</v>
+        <v>30024009</v>
       </c>
       <c r="C347" t="s">
         <v>21</v>
       </c>
       <c r="D347">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E347">
         <v>2</v>
       </c>
-    </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F347">
+        <v>32.89</v>
+      </c>
+    </row>
+    <row r="348" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B348">
-        <v>30024115</v>
+        <v>30024019</v>
       </c>
       <c r="C348" t="s">
         <v>21</v>
       </c>
       <c r="D348">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E348">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F348">
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="349" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B349">
-        <v>30024116</v>
+        <v>30024091</v>
       </c>
       <c r="C349" t="s">
         <v>21</v>
@@ -7082,110 +7649,128 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B350">
-        <v>30024117</v>
+        <v>30024094</v>
       </c>
       <c r="C350" t="s">
         <v>21</v>
       </c>
       <c r="D350">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E350">
         <v>2</v>
       </c>
-    </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F350">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="351" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B351">
-        <v>30024118</v>
+        <v>30024099</v>
       </c>
       <c r="C351" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D351">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E351">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B352">
-        <v>30024119</v>
+        <v>30024102</v>
       </c>
       <c r="C352" t="s">
         <v>21</v>
       </c>
       <c r="D352">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E352">
         <v>2</v>
       </c>
-    </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F352">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="353" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B353">
-        <v>30024121</v>
+        <v>30024103</v>
       </c>
       <c r="C353" t="s">
         <v>21</v>
       </c>
       <c r="D353">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E353">
         <v>2</v>
       </c>
-    </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F353">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="354" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B354">
-        <v>30024132</v>
+        <v>30024104</v>
       </c>
       <c r="C354" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D354">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E354">
         <v>2</v>
       </c>
-    </row>
-    <row r="355" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F354">
+        <v>41.28</v>
+      </c>
+    </row>
+    <row r="355" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B355">
-        <v>30024134</v>
+        <v>30024108</v>
       </c>
       <c r="C355" t="s">
         <v>21</v>
       </c>
       <c r="D355">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E355">
         <v>2</v>
       </c>
-    </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F355">
+        <v>41.28</v>
+      </c>
+    </row>
+    <row r="356" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B356">
-        <v>30024142</v>
+        <v>30024115</v>
       </c>
       <c r="C356" t="s">
         <v>21</v>
       </c>
       <c r="D356">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E356">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F356">
+        <v>25.47</v>
+      </c>
+    </row>
+    <row r="357" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B357">
-        <v>30024144</v>
+        <v>30024116</v>
       </c>
       <c r="C357" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D357">
         <v>30</v>
@@ -7193,97 +7778,112 @@
       <c r="E357">
         <v>2</v>
       </c>
-    </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F357">
+        <v>25.53</v>
+      </c>
+    </row>
+    <row r="358" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B358">
-        <v>30024145</v>
+        <v>30024117</v>
       </c>
       <c r="C358" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D358">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E358">
         <v>2</v>
       </c>
-    </row>
-    <row r="359" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F358">
+        <v>17.88</v>
+      </c>
+    </row>
+    <row r="359" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B359">
-        <v>30024198</v>
+        <v>30024118</v>
       </c>
       <c r="C359" t="s">
         <v>21</v>
       </c>
       <c r="D359">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E359">
         <v>2</v>
       </c>
-    </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F359">
+        <v>17.84</v>
+      </c>
+    </row>
+    <row r="360" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B360">
-        <v>30024199</v>
+        <v>30024119</v>
       </c>
       <c r="C360" t="s">
         <v>21</v>
       </c>
       <c r="D360">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E360">
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B361">
-        <v>30024200</v>
+        <v>30024121</v>
       </c>
       <c r="C361" t="s">
         <v>21</v>
       </c>
       <c r="D361">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E361">
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B362">
-        <v>30024204</v>
+        <v>30024132</v>
       </c>
       <c r="C362" t="s">
         <v>21</v>
       </c>
       <c r="D362">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E362">
         <v>2</v>
       </c>
-    </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F362">
+        <v>24.59</v>
+      </c>
+    </row>
+    <row r="363" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B363">
-        <v>30024206</v>
+        <v>30024134</v>
       </c>
       <c r="C363" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D363">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E363">
         <v>2</v>
       </c>
-    </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F363">
+        <v>25.08</v>
+      </c>
+    </row>
+    <row r="364" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B364">
-        <v>30024212</v>
+        <v>30024142</v>
       </c>
       <c r="C364" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D364">
         <v>30</v>
@@ -7291,10 +7891,13 @@
       <c r="E364">
         <v>2</v>
       </c>
-    </row>
-    <row r="365" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F364">
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="365" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B365">
-        <v>30024218</v>
+        <v>30024144</v>
       </c>
       <c r="C365" t="s">
         <v>21</v>
@@ -7305,27 +7908,33 @@
       <c r="E365">
         <v>2</v>
       </c>
-    </row>
-    <row r="366" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F365">
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="366" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B366">
-        <v>30024229</v>
+        <v>30024145</v>
       </c>
       <c r="C366" t="s">
         <v>21</v>
       </c>
       <c r="D366">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E366">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F366">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="367" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B367">
-        <v>30024230</v>
+        <v>30024198</v>
       </c>
       <c r="C367" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D367">
         <v>15</v>
@@ -7334,177 +7943,198 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B368">
+        <v>30024199</v>
+      </c>
+      <c r="C368" t="s">
+        <v>21</v>
+      </c>
+      <c r="D368">
+        <v>10</v>
+      </c>
+      <c r="E368">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B369">
+        <v>30024200</v>
+      </c>
+      <c r="C369" t="s">
+        <v>21</v>
+      </c>
+      <c r="D369">
+        <v>25</v>
+      </c>
+      <c r="E369">
+        <v>2</v>
+      </c>
+      <c r="F369">
+        <v>28.06</v>
+      </c>
+    </row>
+    <row r="370" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B370">
+        <v>30024204</v>
+      </c>
+      <c r="C370" t="s">
+        <v>21</v>
+      </c>
+      <c r="D370">
+        <v>35</v>
+      </c>
+      <c r="E370">
+        <v>2</v>
+      </c>
+      <c r="F370">
+        <v>29.94</v>
+      </c>
+    </row>
+    <row r="371" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B371">
+        <v>30024206</v>
+      </c>
+      <c r="C371" t="s">
+        <v>21</v>
+      </c>
+      <c r="D371">
+        <v>30</v>
+      </c>
+      <c r="E371">
+        <v>2</v>
+      </c>
+      <c r="F371">
+        <v>29.86</v>
+      </c>
+    </row>
+    <row r="372" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B372">
+        <v>30024212</v>
+      </c>
+      <c r="C372" t="s">
+        <v>21</v>
+      </c>
+      <c r="D372">
+        <v>30</v>
+      </c>
+      <c r="E372">
+        <v>2</v>
+      </c>
+      <c r="F372">
+        <v>33.61</v>
+      </c>
+    </row>
+    <row r="373" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B373">
+        <v>30024218</v>
+      </c>
+      <c r="C373" t="s">
+        <v>21</v>
+      </c>
+      <c r="D373">
+        <v>30</v>
+      </c>
+      <c r="E373">
+        <v>2</v>
+      </c>
+      <c r="F373">
+        <v>25.67</v>
+      </c>
+    </row>
+    <row r="374" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B374">
         <v>30024231</v>
       </c>
-      <c r="C368" t="s">
-        <v>19</v>
-      </c>
-      <c r="D368">
-        <v>35</v>
-      </c>
-      <c r="E368">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B369">
+      <c r="C374" t="s">
+        <v>21</v>
+      </c>
+      <c r="D374">
+        <v>35</v>
+      </c>
+      <c r="E374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B375">
         <v>30024232</v>
-      </c>
-      <c r="C369" t="s">
-        <v>19</v>
-      </c>
-      <c r="D369">
-        <v>35</v>
-      </c>
-      <c r="E369">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="370" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B370">
-        <v>30024233</v>
-      </c>
-      <c r="C370" t="s">
-        <v>19</v>
-      </c>
-      <c r="D370">
-        <v>25</v>
-      </c>
-      <c r="E370">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="371" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B371">
-        <v>30024234</v>
-      </c>
-      <c r="C371" t="s">
-        <v>20</v>
-      </c>
-      <c r="D371">
-        <v>50</v>
-      </c>
-      <c r="E371">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B372">
-        <v>30024235</v>
-      </c>
-      <c r="C372" t="s">
-        <v>19</v>
-      </c>
-      <c r="D372">
-        <v>50</v>
-      </c>
-      <c r="E372">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B373">
-        <v>30024236</v>
-      </c>
-      <c r="C373" t="s">
-        <v>19</v>
-      </c>
-      <c r="D373">
-        <v>25</v>
-      </c>
-      <c r="E373">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="374" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B374">
-        <v>30024237</v>
-      </c>
-      <c r="C374" t="s">
-        <v>19</v>
-      </c>
-      <c r="D374">
-        <v>20</v>
-      </c>
-      <c r="E374">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="375" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B375">
-        <v>30024239</v>
       </c>
       <c r="C375" t="s">
         <v>21</v>
       </c>
       <c r="D375">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E375">
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B376">
-        <v>30024259</v>
+        <v>30024234</v>
       </c>
       <c r="C376" t="s">
         <v>21</v>
       </c>
       <c r="D376">
-        <v>22.5</v>
+        <v>50</v>
       </c>
       <c r="E376">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="377" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F376">
+        <v>25.44</v>
+      </c>
+    </row>
+    <row r="377" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B377">
-        <v>30024260</v>
+        <v>30024235</v>
       </c>
       <c r="C377" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D377">
-        <v>22.5</v>
+        <v>50</v>
       </c>
       <c r="E377">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="378" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F377">
+        <v>25.44</v>
+      </c>
+    </row>
+    <row r="378" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B378">
-        <v>30024262</v>
+        <v>30024236</v>
       </c>
       <c r="C378" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D378">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E378">
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B379">
-        <v>30024263</v>
+        <v>30024237</v>
       </c>
       <c r="C379" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D379">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E379">
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B380">
-        <v>30024381</v>
+        <v>30024239</v>
       </c>
       <c r="C380" t="s">
         <v>21</v>
@@ -7513,116 +8143,258 @@
         <v>20</v>
       </c>
       <c r="E380">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="381" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B381">
-        <v>30024406</v>
+        <v>30024262</v>
       </c>
       <c r="C381" t="s">
         <v>21</v>
       </c>
       <c r="D381">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E381">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="382" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F381">
+        <v>29.71</v>
+      </c>
+    </row>
+    <row r="382" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B382">
-        <v>30024407</v>
+        <v>30024263</v>
       </c>
       <c r="C382" t="s">
         <v>21</v>
       </c>
       <c r="D382">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E382">
         <v>2</v>
       </c>
-    </row>
-    <row r="383" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F382">
+        <v>30.21</v>
+      </c>
+    </row>
+    <row r="383" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B383">
-        <v>30024410</v>
+        <v>30024464</v>
       </c>
       <c r="C383" t="s">
         <v>21</v>
       </c>
       <c r="D383">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E383">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="384" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B384">
-        <v>30024464</v>
+        <v>30024490</v>
       </c>
       <c r="C384" t="s">
         <v>21</v>
       </c>
       <c r="D384">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E384">
         <v>2</v>
       </c>
-    </row>
-    <row r="385" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F384">
+        <v>28.04</v>
+      </c>
+    </row>
+    <row r="385" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B385">
-        <v>30024489</v>
+        <v>30024491</v>
       </c>
       <c r="C385" t="s">
         <v>21</v>
       </c>
       <c r="D385">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E385">
         <v>2</v>
       </c>
-    </row>
-    <row r="386" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F385">
+        <v>27.53</v>
+      </c>
+    </row>
+    <row r="386" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B386">
-        <v>30024490</v>
+        <v>3006690</v>
       </c>
       <c r="C386" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D386">
-        <v>30</v>
+        <v>12.5</v>
       </c>
       <c r="E386">
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B387">
-        <v>30024491</v>
+        <v>3006691</v>
       </c>
       <c r="C387" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D387">
-        <v>30</v>
+        <v>12.5</v>
       </c>
       <c r="E387">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E824">
-    <sortCondition ref="E3:E824"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403FA678-E4F5-4E18-BFBB-768769D1EDB2}">
+  <dimension ref="B1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="I1" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="15"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="4">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>17</v>
+      </c>
+      <c r="G3" s="6">
+        <v>67</v>
+      </c>
+      <c r="I3" s="4">
+        <v>31</v>
+      </c>
+      <c r="J3" s="5">
+        <v>42</v>
+      </c>
+      <c r="K3" s="5">
+        <v>57</v>
+      </c>
+      <c r="L3" s="5">
+        <v>7</v>
+      </c>
+      <c r="M3" s="5">
+        <v>38</v>
+      </c>
+      <c r="N3" s="6">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5">
+        <f>SUM(B3:G3)</f>
+        <v>135</v>
+      </c>
+      <c r="I5" t="s">
+        <v>277</v>
+      </c>
+      <c r="J5">
+        <f>SUM(I3:N3)</f>
+        <v>438</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="I1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3EBBE0-438E-4D9C-B9BF-51C943DBD414}">
   <dimension ref="A1:T336"/>
   <sheetViews>
@@ -7650,28 +8422,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="12" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="15"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -17116,139 +17888,6 @@
   <mergeCells count="2">
     <mergeCell ref="J1:R1"/>
     <mergeCell ref="A1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403FA678-E4F5-4E18-BFBB-768769D1EDB2}">
-  <dimension ref="B1:N5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
-      <c r="I1" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="4">
-        <v>15</v>
-      </c>
-      <c r="C3" s="5">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5">
-        <v>23</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>17</v>
-      </c>
-      <c r="G3" s="6">
-        <v>67</v>
-      </c>
-      <c r="I3" s="4">
-        <v>31</v>
-      </c>
-      <c r="J3" s="5">
-        <v>42</v>
-      </c>
-      <c r="K3" s="5">
-        <v>57</v>
-      </c>
-      <c r="L3" s="5">
-        <v>7</v>
-      </c>
-      <c r="M3" s="5">
-        <v>38</v>
-      </c>
-      <c r="N3" s="6">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5">
-        <f>SUM(B3:G3)</f>
-        <v>135</v>
-      </c>
-      <c r="I5" t="s">
-        <v>277</v>
-      </c>
-      <c r="J5">
-        <f>SUM(I3:N3)</f>
-        <v>438</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="I1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
